--- a/output - EXPECTED.xlsx
+++ b/output - EXPECTED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Workout Visualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B702EE5B-D6A7-4AA1-A473-463103B637D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B461A7DA-AC33-40FA-AF75-CE5F5AE9AA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +182,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,7 +224,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -256,6 +262,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -612,7 +620,7 @@
   <dimension ref="C3:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+      <selection activeCell="U12" sqref="S12:U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,11 +685,11 @@
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="S12" s="6" t="s">
+      <c r="S12" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
     </row>
     <row r="13" spans="3:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="N13" s="10"/>
